--- a/upload_files/Back-office_.xlsx
+++ b/upload_files/Back-office_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998066AA-19FC-EF46-B107-4FB110DF5B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A677B746-0136-B740-9348-9DA43153203E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35980" windowHeight="16220" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Общий 1'!$A$1:$G$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email!$F$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email!$D$1:$J$271</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">email!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1257">
   <si>
     <t>№</t>
   </si>
@@ -3818,7 +3841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3944,8 +3967,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3988,6 +4027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF765779"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4068,7 +4113,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -4082,8 +4127,9 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4205,21 +4251,36 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
+    <cellStyle name="Гиперссылка" xfId="11" builtinId="8"/>
     <cellStyle name="Нейтральный" xfId="7" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="6" builtinId="27"/>
@@ -4577,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8986288-584B-4DAE-9707-E01CDFDA94A7}">
-  <dimension ref="A1:XAX274"/>
+  <dimension ref="A1:WZN273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4593,13 +4654,14 @@
     <col min="6" max="6" width="18.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="43" customWidth="1"/>
     <col min="11" max="11" width="20.6640625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="8"/>
+    <col min="12" max="12" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4693,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <f>ROW()-ROW($A$1)</f>
         <v>1</v>
@@ -4664,7 +4726,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A65" si="0">ROW()-ROW($A$1)</f>
         <v>2</v>
@@ -4696,8 +4758,12 @@
       <c r="J3" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="51" cm="1">
+        <f t="array" ref="L3">SUM((1/COUNTIF(J2:J271,J2:J271)))</f>
+        <v>83.000000000000071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4729,8 +4795,9 @@
       <c r="J4" s="9" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4763,7 +4830,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4829,7 +4896,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4862,7 +4929,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4895,7 +4962,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4928,7 +4995,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4961,7 +5028,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4994,7 +5061,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5027,7 +5094,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5060,7 +5127,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5093,7 +5160,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7036,7 +7103,9 @@
       <c r="I74" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="J74" s="9"/>
+      <c r="J74" s="9" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
@@ -10602,7 +10671,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -10631,7 +10700,7 @@
       <c r="I183" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="J183" s="9" t="s">
+      <c r="J183" s="50" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -10802,7 +10871,7 @@
     </row>
     <row r="189" spans="1:10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
-        <f t="shared" ref="A189:A249" si="3">ROW()-ROW($A$1)</f>
+        <f t="shared" ref="A189:A248" si="3">ROW()-ROW($A$1)</f>
         <v>188</v>
       </c>
       <c r="B189" s="19" t="s">
@@ -10932,7 +11001,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="193" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -10965,7 +11034,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="194" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -10998,7 +11067,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="195" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10 16222:16238" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -11027,11 +11096,11 @@
       <c r="I195" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="J195" s="9" t="s">
+      <c r="J195" s="50" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="196" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -11064,7 +11133,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="197" spans="1:10 16258:16274" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10 16222:16238" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -11097,7 +11166,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="198" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -11130,7 +11199,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="199" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -11163,7 +11232,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="200" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -11196,7 +11265,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="201" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -11229,7 +11298,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="202" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -11262,7 +11331,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="203" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -11295,7 +11364,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="204" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -11328,7 +11397,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="205" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -11361,7 +11430,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="206" spans="1:10 16258:16274" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10 16222:16238" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -11394,7 +11463,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="207" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -11427,7 +11496,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="208" spans="1:10 16258:16274" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10 16222:16238" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -11459,23 +11528,23 @@
       <c r="J208" s="9" t="s">
         <v>1242</v>
       </c>
-      <c r="XAH208" s="15"/>
-      <c r="XAI208" s="16"/>
-      <c r="XAJ208" s="16"/>
-      <c r="XAK208" s="17"/>
-      <c r="XAL208" s="17"/>
-      <c r="XAM208" s="17"/>
-      <c r="XAN208" s="17"/>
-      <c r="XAO208" s="17"/>
-      <c r="XAP208" s="17"/>
-      <c r="XAQ208" s="17"/>
-      <c r="XAR208" s="17"/>
-      <c r="XAS208" s="16"/>
-      <c r="XAT208" s="18"/>
-      <c r="XAU208" s="16"/>
-      <c r="XAV208" s="16"/>
-      <c r="XAW208" s="16"/>
-      <c r="XAX208" s="18"/>
+      <c r="WYX208" s="15"/>
+      <c r="WYY208" s="16"/>
+      <c r="WYZ208" s="16"/>
+      <c r="WZA208" s="17"/>
+      <c r="WZB208" s="17"/>
+      <c r="WZC208" s="17"/>
+      <c r="WZD208" s="17"/>
+      <c r="WZE208" s="17"/>
+      <c r="WZF208" s="17"/>
+      <c r="WZG208" s="17"/>
+      <c r="WZH208" s="17"/>
+      <c r="WZI208" s="16"/>
+      <c r="WZJ208" s="18"/>
+      <c r="WZK208" s="16"/>
+      <c r="WZL208" s="16"/>
+      <c r="WZM208" s="16"/>
+      <c r="WZN208" s="18"/>
     </row>
     <row r="209" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
@@ -12335,197 +12404,203 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="43">
+    <row r="235" spans="1:10" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="46">
         <f t="shared" ref="A235" si="4">A234+1</f>
         <v>234</v>
       </c>
-      <c r="B235" s="43" t="s">
+      <c r="B235" s="46" t="s">
         <v>1248</v>
       </c>
-      <c r="C235" s="43" t="s">
+      <c r="C235" s="46" t="s">
         <v>1249</v>
       </c>
-      <c r="D235" s="45" t="s">
+      <c r="D235" s="47" t="s">
         <v>1250</v>
       </c>
-      <c r="E235" s="44" t="s">
+      <c r="E235" s="48" t="s">
         <v>783</v>
       </c>
-      <c r="F235" s="44" t="s">
+      <c r="F235" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="G235" s="44" t="s">
+      <c r="G235" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="H235" s="44" t="s">
+      <c r="H235" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="I235" s="9" t="s">
+      <c r="I235" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="J235" s="9"/>
-    </row>
-    <row r="236" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J235" s="53" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B236" s="43" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C236" s="43" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D236" s="45" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E236" s="44" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F236" s="44" t="s">
-        <v>691</v>
-      </c>
-      <c r="G236" s="44" t="s">
+      <c r="B236" s="35" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C236" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E236" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="F236" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="G236" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="H236" s="44" t="s">
-        <v>255</v>
+      <c r="H236" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="J236" s="9"/>
-    </row>
-    <row r="237" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="J236" s="9" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B237" s="35" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C237" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="D237" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E237" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="F237" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="G237" s="23" t="s">
+      <c r="B237" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D237" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E237" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="G237" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="H237" s="23" t="s">
-        <v>270</v>
+      <c r="H237" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="I237" s="9" t="s">
-        <v>483</v>
+        <v>1070</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A238" s="9">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>373</v>
+        <v>1073</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E238" s="37" t="s">
-        <v>606</v>
+        <v>1074</v>
       </c>
       <c r="F238" s="21" t="s">
         <v>691</v>
       </c>
       <c r="G238" s="21" t="s">
-        <v>455</v>
+        <v>712</v>
       </c>
       <c r="H238" s="21" t="s">
-        <v>255</v>
+        <v>643</v>
       </c>
       <c r="I238" s="9" t="s">
-        <v>1070</v>
+        <v>779</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A239" s="9">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="49" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A239" s="45">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="B239" s="19" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C239" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E239" s="37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F239" s="21" t="s">
+      <c r="B239" s="46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C239" s="46" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D239" s="47" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E239" s="48" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F239" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="G239" s="21" t="s">
-        <v>712</v>
-      </c>
-      <c r="H239" s="21" t="s">
-        <v>643</v>
-      </c>
-      <c r="I239" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="J239" s="9" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="G239" s="48" t="s">
+        <v>931</v>
+      </c>
+      <c r="H239" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="I239" s="45" t="s">
+        <v>932</v>
+      </c>
+      <c r="J239" s="53" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B240" s="43" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C240" s="43" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D240" s="45" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E240" s="44" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F240" s="44" t="s">
-        <v>691</v>
-      </c>
-      <c r="G240" s="44" t="s">
-        <v>931</v>
-      </c>
-      <c r="H240" s="44" t="s">
+      <c r="B240" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D240" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E240" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F240" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G240" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H240" s="21" t="s">
         <v>255</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="J240" s="9"/>
+        <v>1081</v>
+      </c>
+      <c r="J240" s="9" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="241" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A241" s="9">
@@ -12533,31 +12608,31 @@
         <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="E241" s="37" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="F241" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G241" s="21" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="H241" s="21" t="s">
-        <v>255</v>
+        <v>624</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="242" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12566,31 +12641,31 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>1085</v>
+        <v>359</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="E242" s="37" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="F242" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="H242" s="21" t="s">
-        <v>624</v>
+        <v>244</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="243" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12599,13 +12674,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>359</v>
+        <v>760</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E243" s="37" t="s">
         <v>1091</v>
@@ -12632,31 +12707,31 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>760</v>
+        <v>1098</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="E244" s="37" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="F244" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G244" s="21" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="H244" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="245" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12665,16 +12740,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1098</v>
+        <v>434</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E245" s="37" t="s">
-        <v>1099</v>
+        <v>489</v>
       </c>
       <c r="F245" s="21" t="s">
         <v>1079</v>
@@ -12686,10 +12761,10 @@
         <v>255</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="246" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12698,16 +12773,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>434</v>
+        <v>1107</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="E246" s="37" t="s">
-        <v>489</v>
+        <v>1108</v>
       </c>
       <c r="F246" s="21" t="s">
         <v>1079</v>
@@ -12716,13 +12791,13 @@
         <v>1100</v>
       </c>
       <c r="H246" s="21" t="s">
-        <v>255</v>
+        <v>643</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="247" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12731,16 +12806,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>1107</v>
+        <v>1003</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E247" s="37" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F247" s="21" t="s">
         <v>1079</v>
@@ -12749,7 +12824,7 @@
         <v>1100</v>
       </c>
       <c r="H247" s="21" t="s">
-        <v>643</v>
+        <v>244</v>
       </c>
       <c r="I247" s="9" t="s">
         <v>1109</v>
@@ -12764,97 +12839,97 @@
         <v>247</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>1003</v>
+        <v>1115</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="E248" s="37" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="F248" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G248" s="21" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="H248" s="21" t="s">
         <v>244</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="249" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A249:A271" si="5">ROW()-ROW($A$1)</f>
         <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="E249" s="37" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="F249" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G249" s="21" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="H249" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="250" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
-        <f t="shared" ref="A250:A272" si="5">ROW()-ROW($A$1)</f>
+        <f t="shared" si="5"/>
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E250" s="37" t="s">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="F250" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G250" s="21" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="H250" s="21" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="251" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -12863,13 +12938,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>1122</v>
+        <v>745</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>1123</v>
+        <v>929</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E251" s="37" t="s">
         <v>1086</v>
@@ -12881,7 +12956,7 @@
         <v>1087</v>
       </c>
       <c r="H251" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>1088</v>
@@ -12896,13 +12971,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>745</v>
+        <v>1126</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>929</v>
+        <v>1029</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E252" s="37" t="s">
         <v>1086</v>
@@ -12914,7 +12989,7 @@
         <v>1087</v>
       </c>
       <c r="H252" s="21" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>1088</v>
@@ -12929,13 +13004,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>1029</v>
+        <v>1129</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="E253" s="37" t="s">
         <v>1086</v>
@@ -12962,13 +13037,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="E254" s="37" t="s">
         <v>1086</v>
@@ -12980,7 +13055,7 @@
         <v>1087</v>
       </c>
       <c r="H254" s="21" t="s">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>1088</v>
@@ -12995,13 +13070,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1132</v>
+        <v>392</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E255" s="37" t="s">
         <v>1086</v>
@@ -13013,7 +13088,7 @@
         <v>1087</v>
       </c>
       <c r="H255" s="21" t="s">
-        <v>490</v>
+        <v>643</v>
       </c>
       <c r="I255" s="9" t="s">
         <v>1088</v>
@@ -13027,26 +13102,26 @@
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="B256" s="19" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D256" s="20" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E256" s="37" t="s">
+      <c r="B256" s="27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E256" s="40" t="s">
         <v>1086</v>
       </c>
-      <c r="F256" s="21" t="s">
+      <c r="F256" s="29" t="s">
         <v>1079</v>
       </c>
-      <c r="G256" s="21" t="s">
+      <c r="G256" s="29" t="s">
         <v>1087</v>
       </c>
-      <c r="H256" s="21" t="s">
-        <v>643</v>
+      <c r="H256" s="29" t="s">
+        <v>244</v>
       </c>
       <c r="I256" s="9" t="s">
         <v>1088</v>
@@ -13060,26 +13135,26 @@
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
-      <c r="B257" s="27" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C257" s="27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D257" s="28" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E257" s="40" t="s">
+      <c r="B257" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D257" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E257" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="F257" s="29" t="s">
+      <c r="F257" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="G257" s="29" t="s">
+      <c r="G257" s="21" t="s">
         <v>1087</v>
       </c>
-      <c r="H257" s="29" t="s">
-        <v>244</v>
+      <c r="H257" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="I257" s="9" t="s">
         <v>1088</v>
@@ -13094,13 +13169,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>276</v>
+        <v>1142</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E258" s="37" t="s">
         <v>1086</v>
@@ -13112,7 +13187,7 @@
         <v>1087</v>
       </c>
       <c r="H258" s="21" t="s">
-        <v>318</v>
+        <v>534</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>1088</v>
@@ -13127,13 +13202,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1142</v>
+        <v>452</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E259" s="37" t="s">
         <v>1086</v>
@@ -13145,7 +13220,7 @@
         <v>1087</v>
       </c>
       <c r="H259" s="21" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I259" s="9" t="s">
         <v>1088</v>
@@ -13160,13 +13235,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C260" s="19" t="s">
         <v>452</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E260" s="37" t="s">
         <v>1086</v>
@@ -13178,7 +13253,7 @@
         <v>1087</v>
       </c>
       <c r="H260" s="21" t="s">
-        <v>521</v>
+        <v>265</v>
       </c>
       <c r="I260" s="9" t="s">
         <v>1088</v>
@@ -13192,26 +13267,26 @@
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="B261" s="19" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C261" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D261" s="20" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E261" s="37" t="s">
+      <c r="B261" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E261" s="38" t="s">
         <v>1086</v>
       </c>
-      <c r="F261" s="21" t="s">
+      <c r="F261" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="G261" s="21" t="s">
+      <c r="G261" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="H261" s="21" t="s">
-        <v>265</v>
+      <c r="H261" s="23" t="s">
+        <v>643</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>1088</v>
@@ -13226,13 +13301,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="E262" s="38" t="s">
         <v>1086</v>
@@ -13244,7 +13319,7 @@
         <v>1087</v>
       </c>
       <c r="H262" s="23" t="s">
-        <v>643</v>
+        <v>244</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>1088</v>
@@ -13258,26 +13333,26 @@
         <f t="shared" si="5"/>
         <v>262</v>
       </c>
-      <c r="B263" s="22" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C263" s="22" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E263" s="38" t="s">
+      <c r="B263" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="D263" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E263" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="F263" s="23" t="s">
+      <c r="F263" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="G263" s="23" t="s">
+      <c r="G263" s="21" t="s">
         <v>1087</v>
       </c>
-      <c r="H263" s="23" t="s">
-        <v>244</v>
+      <c r="H263" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>1088</v>
@@ -13292,13 +13367,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>679</v>
+        <v>1056</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E264" s="37" t="s">
         <v>1086</v>
@@ -13310,7 +13385,7 @@
         <v>1087</v>
       </c>
       <c r="H264" s="21" t="s">
-        <v>255</v>
+        <v>521</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>1088</v>
@@ -13325,13 +13400,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>1056</v>
+        <v>557</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E265" s="37" t="s">
         <v>1086</v>
@@ -13343,7 +13418,7 @@
         <v>1087</v>
       </c>
       <c r="H265" s="21" t="s">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>1088</v>
@@ -13357,26 +13432,26 @@
         <f t="shared" si="5"/>
         <v>265</v>
       </c>
-      <c r="B266" s="19" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C266" s="19" t="s">
+      <c r="B266" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C266" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="D266" s="20" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E266" s="37" t="s">
+      <c r="D266" s="22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E266" s="38" t="s">
         <v>1086</v>
       </c>
-      <c r="F266" s="21" t="s">
+      <c r="F266" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="G266" s="21" t="s">
+      <c r="G266" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="H266" s="21" t="s">
-        <v>624</v>
+      <c r="H266" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>1088</v>
@@ -13391,13 +13466,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="E267" s="38" t="s">
         <v>1086</v>
@@ -13409,7 +13484,7 @@
         <v>1087</v>
       </c>
       <c r="H267" s="23" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I267" s="9" t="s">
         <v>1088</v>
@@ -13423,32 +13498,32 @@
         <f t="shared" si="5"/>
         <v>267</v>
       </c>
-      <c r="B268" s="22" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E268" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F268" s="23" t="s">
+      <c r="B268" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E268" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="F268" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="G268" s="23" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H268" s="23" t="s">
+      <c r="G268" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H268" s="21" t="s">
         <v>244</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="269" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -13457,31 +13532,31 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="E269" s="37" t="s">
-        <v>489</v>
+        <v>1169</v>
       </c>
       <c r="F269" s="21" t="s">
         <v>1079</v>
       </c>
       <c r="G269" s="21" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="H269" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>1109</v>
+        <v>1170</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="270" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -13489,124 +13564,95 @@
         <f t="shared" si="5"/>
         <v>269</v>
       </c>
-      <c r="B270" s="19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C270" s="19" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D270" s="20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E270" s="37" t="s">
+      <c r="B270" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E270" s="38" t="s">
         <v>1169</v>
       </c>
-      <c r="F270" s="21" t="s">
+      <c r="F270" s="23" t="s">
         <v>1079</v>
       </c>
       <c r="G270" s="21" t="s">
         <v>1080</v>
       </c>
-      <c r="H270" s="21" t="s">
+      <c r="H270" s="23" t="s">
         <v>255</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="B271" s="22" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E271" s="38" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F271" s="23" t="s">
-        <v>1079</v>
+      <c r="B271" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E271" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>691</v>
       </c>
       <c r="G271" s="21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H271" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="H271" s="21" t="s">
         <v>255</v>
       </c>
       <c r="I271" s="9" t="s">
-        <v>1174</v>
+        <v>1101</v>
       </c>
       <c r="J271" s="9" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="9">
-        <f t="shared" si="5"/>
-        <v>271</v>
-      </c>
-      <c r="B272" s="19" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C272" s="19" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D272" s="20" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E272" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F272" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="G272" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="H272" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="I272" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="J272" s="9" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B273"/>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B272"/>
+      <c r="D272" s="8"/>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D273" s="8"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D274" s="8"/>
-      <c r="E274"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:J272" xr:uid="{B8986288-584B-4DAE-9707-E01CDFDA94A7}"/>
+  <autoFilter ref="D1:J271" xr:uid="{B8986288-584B-4DAE-9707-E01CDFDA94A7}"/>
   <hyperlinks>
     <hyperlink ref="J190" r:id="rId1" display="mailto:kkalimzhan@borusan.com" xr:uid="{3CD7FFB2-BF18-4926-B694-D18F85C040B4}"/>
     <hyperlink ref="J24" r:id="rId2" display="mailto:ykanafin@borusan.com" xr:uid="{1724888F-A423-4D96-88C3-9EC2FD61BC0F}"/>
     <hyperlink ref="J25" r:id="rId3" display="mailto:vperevertun@borusan.com" xr:uid="{CE53CFDD-45A4-418B-B87A-38F76E4F8C6E}"/>
     <hyperlink ref="J72" r:id="rId4" xr:uid="{CC4FDF3B-AD8D-4E9F-8881-0E41214F4150}"/>
-    <hyperlink ref="J247" r:id="rId5" xr:uid="{66C6226A-0835-47AA-AB57-2A98F9F2F5F0}"/>
-    <hyperlink ref="J248" r:id="rId6" xr:uid="{63E147D8-9969-435E-8B78-AB7141C33352}"/>
-    <hyperlink ref="J269" r:id="rId7" xr:uid="{4076165D-F52E-4679-BE0D-D064B1E2B7A6}"/>
-    <hyperlink ref="J239" r:id="rId8" display="mailto:kkalimzhan@borusan.com" xr:uid="{F2D512D0-D177-4618-806B-E76F47D49033}"/>
+    <hyperlink ref="J246" r:id="rId5" xr:uid="{66C6226A-0835-47AA-AB57-2A98F9F2F5F0}"/>
+    <hyperlink ref="J247" r:id="rId6" xr:uid="{63E147D8-9969-435E-8B78-AB7141C33352}"/>
+    <hyperlink ref="J268" r:id="rId7" xr:uid="{4076165D-F52E-4679-BE0D-D064B1E2B7A6}"/>
+    <hyperlink ref="J238" r:id="rId8" display="mailto:kkalimzhan@borusan.com" xr:uid="{F2D512D0-D177-4618-806B-E76F47D49033}"/>
     <hyperlink ref="J185:J187" r:id="rId9" display="ymarchenkov@borusan.com" xr:uid="{4B145488-6A7A-48D6-94B5-BDFD2F928DEE}"/>
+    <hyperlink ref="J183" r:id="rId10" xr:uid="{7AFC70F5-4FF1-2F4A-AEA9-A3D14B2CEE20}"/>
+    <hyperlink ref="J235" r:id="rId11" xr:uid="{E2403DE6-8F92-B24B-AC30-C542E6F25F39}"/>
+    <hyperlink ref="J195" r:id="rId12" xr:uid="{3EBF9658-39A3-844C-AB56-D0B9F65ED5CB}"/>
+    <hyperlink ref="J239" r:id="rId13" xr:uid="{31A23234-96E2-5040-861D-03800E769919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
